--- a/natmiOut/OldD7/LR-pairs_lrc2p/Cxcl10-Sdc4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Cxcl10-Sdc4.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.99828384143835</v>
+        <v>5.122044</v>
       </c>
       <c r="H2">
-        <v>2.99828384143835</v>
+        <v>15.366132</v>
       </c>
       <c r="I2">
-        <v>0.02502866265564112</v>
+        <v>0.0387196063811631</v>
       </c>
       <c r="J2">
-        <v>0.02502866265564112</v>
+        <v>0.0387196063811631</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.18686435064815</v>
+        <v>3.438907666666667</v>
       </c>
       <c r="N2">
-        <v>2.18686435064815</v>
+        <v>10.316723</v>
       </c>
       <c r="O2">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="P2">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="Q2">
-        <v>6.556840045965918</v>
+        <v>17.614236380604</v>
       </c>
       <c r="R2">
-        <v>6.556840045965918</v>
+        <v>158.528127425436</v>
       </c>
       <c r="S2">
-        <v>0.001025934651126035</v>
+        <v>0.002255580600111812</v>
       </c>
       <c r="T2">
-        <v>0.001025934651126035</v>
+        <v>0.002255580600111812</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.99828384143835</v>
+        <v>5.122044</v>
       </c>
       <c r="H3">
-        <v>2.99828384143835</v>
+        <v>15.366132</v>
       </c>
       <c r="I3">
-        <v>0.02502866265564112</v>
+        <v>0.0387196063811631</v>
       </c>
       <c r="J3">
-        <v>0.02502866265564112</v>
+        <v>0.0387196063811631</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.3350883614071</v>
+        <v>10.383857</v>
       </c>
       <c r="N3">
-        <v>10.3350883614071</v>
+        <v>31.151571</v>
       </c>
       <c r="O3">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="P3">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="Q3">
-        <v>30.98752843384446</v>
+        <v>53.186572443708</v>
       </c>
       <c r="R3">
-        <v>30.98752843384446</v>
+        <v>478.679151993372</v>
       </c>
       <c r="S3">
-        <v>0.004848551886299828</v>
+        <v>0.00681077501165881</v>
       </c>
       <c r="T3">
-        <v>0.004848551886299828</v>
+        <v>0.00681077501165881</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.99828384143835</v>
+        <v>5.122044</v>
       </c>
       <c r="H4">
-        <v>2.99828384143835</v>
+        <v>15.366132</v>
       </c>
       <c r="I4">
-        <v>0.02502866265564112</v>
+        <v>0.0387196063811631</v>
       </c>
       <c r="J4">
-        <v>0.02502866265564112</v>
+        <v>0.0387196063811631</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.1076762226289</v>
+        <v>25.34077833333333</v>
       </c>
       <c r="N4">
-        <v>23.1076762226289</v>
+        <v>76.022335</v>
       </c>
       <c r="O4">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="P4">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="Q4">
-        <v>69.2833722314974</v>
+        <v>129.79658161758</v>
       </c>
       <c r="R4">
-        <v>69.2833722314974</v>
+        <v>1168.16923455822</v>
       </c>
       <c r="S4">
-        <v>0.010840620149471</v>
+        <v>0.0166210243311952</v>
       </c>
       <c r="T4">
-        <v>0.010840620149471</v>
+        <v>0.0166210243311952</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.99828384143835</v>
+        <v>5.122044</v>
       </c>
       <c r="H5">
-        <v>2.99828384143835</v>
+        <v>15.366132</v>
       </c>
       <c r="I5">
-        <v>0.02502866265564112</v>
+        <v>0.0387196063811631</v>
       </c>
       <c r="J5">
-        <v>0.02502866265564112</v>
+        <v>0.0387196063811631</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.7210304332839</v>
+        <v>19.86921833333334</v>
       </c>
       <c r="N5">
-        <v>17.7210304332839</v>
+        <v>59.60765500000001</v>
       </c>
       <c r="O5">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="P5">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="Q5">
-        <v>53.13267920175236</v>
+        <v>101.77101054894</v>
       </c>
       <c r="R5">
-        <v>53.13267920175236</v>
+        <v>915.9390949404601</v>
       </c>
       <c r="S5">
-        <v>0.008313555968744257</v>
+        <v>0.01303222643819727</v>
       </c>
       <c r="T5">
-        <v>0.008313555968744257</v>
+        <v>0.01303222643819727</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>75.1906746463755</v>
+        <v>75.68093133333333</v>
       </c>
       <c r="H6">
-        <v>75.1906746463755</v>
+        <v>227.042794</v>
       </c>
       <c r="I6">
-        <v>0.6276664018812161</v>
+        <v>0.5721028307813247</v>
       </c>
       <c r="J6">
-        <v>0.6276664018812161</v>
+        <v>0.5721028307813247</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.18686435064815</v>
+        <v>3.438907666666667</v>
       </c>
       <c r="N6">
-        <v>2.18686435064815</v>
+        <v>10.316723</v>
       </c>
       <c r="O6">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="P6">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="Q6">
-        <v>164.4318058853423</v>
+        <v>260.2597349826735</v>
       </c>
       <c r="R6">
-        <v>164.4318058853423</v>
+        <v>2342.337614844062</v>
       </c>
       <c r="S6">
-        <v>0.02572829079592883</v>
+        <v>0.03332740611245449</v>
       </c>
       <c r="T6">
-        <v>0.02572829079592883</v>
+        <v>0.03332740611245449</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>75.1906746463755</v>
+        <v>75.68093133333333</v>
       </c>
       <c r="H7">
-        <v>75.1906746463755</v>
+        <v>227.042794</v>
       </c>
       <c r="I7">
-        <v>0.6276664018812161</v>
+        <v>0.5721028307813247</v>
       </c>
       <c r="J7">
-        <v>0.6276664018812161</v>
+        <v>0.5721028307813247</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.3350883614071</v>
+        <v>10.383857</v>
       </c>
       <c r="N7">
-        <v>10.3350883614071</v>
+        <v>31.151571</v>
       </c>
       <c r="O7">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="P7">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="Q7">
-        <v>777.1022664241034</v>
+        <v>785.8599685921528</v>
       </c>
       <c r="R7">
-        <v>777.1022664241034</v>
+        <v>7072.739717329375</v>
       </c>
       <c r="S7">
-        <v>0.1215915192385353</v>
+        <v>0.1006328325145456</v>
       </c>
       <c r="T7">
-        <v>0.1215915192385353</v>
+        <v>0.1006328325145456</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>75.1906746463755</v>
+        <v>75.68093133333333</v>
       </c>
       <c r="H8">
-        <v>75.1906746463755</v>
+        <v>227.042794</v>
       </c>
       <c r="I8">
-        <v>0.6276664018812161</v>
+        <v>0.5721028307813247</v>
       </c>
       <c r="J8">
-        <v>0.6276664018812161</v>
+        <v>0.5721028307813247</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.1076762226289</v>
+        <v>25.34077833333333</v>
       </c>
       <c r="N8">
-        <v>23.1076762226289</v>
+        <v>76.022335</v>
       </c>
       <c r="O8">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="P8">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="Q8">
-        <v>1737.481764689477</v>
+        <v>1917.813704978221</v>
       </c>
       <c r="R8">
-        <v>1737.481764689477</v>
+        <v>17260.32334480399</v>
       </c>
       <c r="S8">
-        <v>0.2718600325153961</v>
+        <v>0.2455844973410707</v>
       </c>
       <c r="T8">
-        <v>0.2718600325153961</v>
+        <v>0.2455844973410707</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>75.1906746463755</v>
+        <v>75.68093133333333</v>
       </c>
       <c r="H9">
-        <v>75.1906746463755</v>
+        <v>227.042794</v>
       </c>
       <c r="I9">
-        <v>0.6276664018812161</v>
+        <v>0.5721028307813247</v>
       </c>
       <c r="J9">
-        <v>0.6276664018812161</v>
+        <v>0.5721028307813247</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.7210304332839</v>
+        <v>19.86921833333334</v>
       </c>
       <c r="N9">
-        <v>17.7210304332839</v>
+        <v>59.60765500000001</v>
       </c>
       <c r="O9">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="P9">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="Q9">
-        <v>1332.456233707568</v>
+        <v>1503.720948332008</v>
       </c>
       <c r="R9">
-        <v>1332.456233707568</v>
+        <v>13533.48853498807</v>
       </c>
       <c r="S9">
-        <v>0.208486559331356</v>
+        <v>0.192558094813254</v>
       </c>
       <c r="T9">
-        <v>0.208486559331356</v>
+        <v>0.192558094813254</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>35.2178197568209</v>
+        <v>41.00894566666667</v>
       </c>
       <c r="H10">
-        <v>35.2178197568209</v>
+        <v>123.026837</v>
       </c>
       <c r="I10">
-        <v>0.2939864858617881</v>
+        <v>0.3100032397847104</v>
       </c>
       <c r="J10">
-        <v>0.2939864858617881</v>
+        <v>0.3100032397847104</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.18686435064815</v>
+        <v>3.438907666666667</v>
       </c>
       <c r="N10">
-        <v>2.18686435064815</v>
+        <v>10.316723</v>
       </c>
       <c r="O10">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="P10">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="Q10">
-        <v>77.01659453374373</v>
+        <v>141.0259776550168</v>
       </c>
       <c r="R10">
-        <v>77.01659453374373</v>
+        <v>1269.233798895151</v>
       </c>
       <c r="S10">
-        <v>0.01205062080056457</v>
+        <v>0.01805899798533021</v>
       </c>
       <c r="T10">
-        <v>0.01205062080056457</v>
+        <v>0.01805899798533021</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>35.2178197568209</v>
+        <v>41.00894566666667</v>
       </c>
       <c r="H11">
-        <v>35.2178197568209</v>
+        <v>123.026837</v>
       </c>
       <c r="I11">
-        <v>0.2939864858617881</v>
+        <v>0.3100032397847104</v>
       </c>
       <c r="J11">
-        <v>0.2939864858617881</v>
+        <v>0.3100032397847104</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.3350883614071</v>
+        <v>10.383857</v>
       </c>
       <c r="N11">
-        <v>10.3350883614071</v>
+        <v>31.151571</v>
       </c>
       <c r="O11">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="P11">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="Q11">
-        <v>363.9792790828528</v>
+        <v>425.8310275234364</v>
       </c>
       <c r="R11">
-        <v>363.9792790828528</v>
+        <v>3832.479247710927</v>
       </c>
       <c r="S11">
-        <v>0.05695105448434988</v>
+        <v>0.05452953984796054</v>
       </c>
       <c r="T11">
-        <v>0.05695105448434988</v>
+        <v>0.05452953984796054</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>35.2178197568209</v>
+        <v>41.00894566666667</v>
       </c>
       <c r="H12">
-        <v>35.2178197568209</v>
+        <v>123.026837</v>
       </c>
       <c r="I12">
-        <v>0.2939864858617881</v>
+        <v>0.3100032397847104</v>
       </c>
       <c r="J12">
-        <v>0.2939864858617881</v>
+        <v>0.3100032397847104</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>23.1076762226289</v>
+        <v>25.34077833333333</v>
       </c>
       <c r="N12">
-        <v>23.1076762226289</v>
+        <v>76.022335</v>
       </c>
       <c r="O12">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="P12">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="Q12">
-        <v>813.8019762075206</v>
+        <v>1039.198601822711</v>
       </c>
       <c r="R12">
-        <v>813.8019762075206</v>
+        <v>9352.787416404395</v>
       </c>
       <c r="S12">
-        <v>0.1273338438475124</v>
+        <v>0.1330739610441317</v>
       </c>
       <c r="T12">
-        <v>0.1273338438475124</v>
+        <v>0.1330739610441318</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>35.2178197568209</v>
+        <v>41.00894566666667</v>
       </c>
       <c r="H13">
-        <v>35.2178197568209</v>
+        <v>123.026837</v>
       </c>
       <c r="I13">
-        <v>0.2939864858617881</v>
+        <v>0.3100032397847104</v>
       </c>
       <c r="J13">
-        <v>0.2939864858617881</v>
+        <v>0.3100032397847104</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.7210304332839</v>
+        <v>19.86921833333334</v>
       </c>
       <c r="N13">
-        <v>17.7210304332839</v>
+        <v>59.60765500000001</v>
       </c>
       <c r="O13">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="P13">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="Q13">
-        <v>624.0960557045302</v>
+        <v>814.8156950708041</v>
       </c>
       <c r="R13">
-        <v>624.0960557045302</v>
+        <v>7333.341255637236</v>
       </c>
       <c r="S13">
-        <v>0.09765096672936127</v>
+        <v>0.1043407409072879</v>
       </c>
       <c r="T13">
-        <v>0.09765096672936127</v>
+        <v>0.1043407409072879</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.38723083569372</v>
+        <v>10.473618</v>
       </c>
       <c r="H14">
-        <v>6.38723083569372</v>
+        <v>31.420854</v>
       </c>
       <c r="I14">
-        <v>0.0533184496013547</v>
+        <v>0.07917432305280171</v>
       </c>
       <c r="J14">
-        <v>0.0533184496013547</v>
+        <v>0.0791743230528017</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.18686435064815</v>
+        <v>3.438907666666667</v>
       </c>
       <c r="N14">
-        <v>2.18686435064815</v>
+        <v>10.316723</v>
       </c>
       <c r="O14">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="P14">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="Q14">
-        <v>13.96800741393919</v>
+        <v>36.017805237938</v>
       </c>
       <c r="R14">
-        <v>13.96800741393919</v>
+        <v>324.160247141442</v>
       </c>
       <c r="S14">
-        <v>0.002185544059742959</v>
+        <v>0.004612238702709675</v>
       </c>
       <c r="T14">
-        <v>0.002185544059742959</v>
+        <v>0.004612238702709674</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.38723083569372</v>
+        <v>10.473618</v>
       </c>
       <c r="H15">
-        <v>6.38723083569372</v>
+        <v>31.420854</v>
       </c>
       <c r="I15">
-        <v>0.0533184496013547</v>
+        <v>0.07917432305280171</v>
       </c>
       <c r="J15">
-        <v>0.0533184496013547</v>
+        <v>0.0791743230528017</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.3350883614071</v>
+        <v>10.383857</v>
       </c>
       <c r="N15">
-        <v>10.3350883614071</v>
+        <v>31.151571</v>
       </c>
       <c r="O15">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="P15">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="Q15">
-        <v>66.01259507159871</v>
+        <v>108.756551584626</v>
       </c>
       <c r="R15">
-        <v>66.01259507159871</v>
+        <v>978.8089642616339</v>
       </c>
       <c r="S15">
-        <v>0.0103288486862467</v>
+        <v>0.01392675575533126</v>
       </c>
       <c r="T15">
-        <v>0.0103288486862467</v>
+        <v>0.01392675575533125</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.38723083569372</v>
+        <v>10.473618</v>
       </c>
       <c r="H16">
-        <v>6.38723083569372</v>
+        <v>31.420854</v>
       </c>
       <c r="I16">
-        <v>0.0533184496013547</v>
+        <v>0.07917432305280171</v>
       </c>
       <c r="J16">
-        <v>0.0533184496013547</v>
+        <v>0.0791743230528017</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.1076762226289</v>
+        <v>25.34077833333333</v>
       </c>
       <c r="N16">
-        <v>23.1076762226289</v>
+        <v>76.022335</v>
       </c>
       <c r="O16">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="P16">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="Q16">
-        <v>147.5940621104019</v>
+        <v>265.40963208601</v>
       </c>
       <c r="R16">
-        <v>147.5940621104019</v>
+        <v>2388.68668877409</v>
       </c>
       <c r="S16">
-        <v>0.02309372526369184</v>
+        <v>0.03398687313378098</v>
       </c>
       <c r="T16">
-        <v>0.02309372526369184</v>
+        <v>0.03398687313378097</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.38723083569372</v>
+        <v>10.473618</v>
       </c>
       <c r="H17">
-        <v>6.38723083569372</v>
+        <v>31.420854</v>
       </c>
       <c r="I17">
-        <v>0.0533184496013547</v>
+        <v>0.07917432305280171</v>
       </c>
       <c r="J17">
-        <v>0.0533184496013547</v>
+        <v>0.0791743230528017</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.7210304332839</v>
+        <v>19.86921833333334</v>
       </c>
       <c r="N17">
-        <v>17.7210304332839</v>
+        <v>59.60765500000001</v>
       </c>
       <c r="O17">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="P17">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="Q17">
-        <v>113.1883120237378</v>
+        <v>208.10260278193</v>
       </c>
       <c r="R17">
-        <v>113.1883120237378</v>
+        <v>1872.92342503737</v>
       </c>
       <c r="S17">
-        <v>0.0177103315916732</v>
+        <v>0.0266484554609798</v>
       </c>
       <c r="T17">
-        <v>0.0177103315916732</v>
+        <v>0.0266484554609798</v>
       </c>
     </row>
   </sheetData>
